--- a/input_data/data_ground_truth/5_composicao/composicao.xlsx
+++ b/input_data/data_ground_truth/5_composicao/composicao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>codigo_pai</t>
   </si>
@@ -22,10 +22,7 @@
     <t>codigo_filho</t>
   </si>
   <si>
-    <t>nivel_pai</t>
-  </si>
-  <si>
-    <t>nivel_filho</t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -50,7 +47,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -107,7 +104,7 @@
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -484,7 +481,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -507,19 +504,15 @@
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4">
         <v>0</v>
       </c>
       <c r="B2" s="4">
         <v>2</v>
       </c>
-      <c r="C2" s="5">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1</v>
-      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -541,19 +534,15 @@
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4">
         <v>5000</v>
       </c>
-      <c r="C3" s="5">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5">
-        <v>2</v>
-      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
       <c r="E3" s="3"/>
       <c r="F3" s="6"/>
       <c r="G3" s="3"/>
@@ -575,19 +564,15 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="5">
         <v>5000</v>
       </c>
       <c r="B4" s="4">
         <v>5001</v>
       </c>
-      <c r="C4" s="5">
-        <v>2</v>
-      </c>
-      <c r="D4" s="5">
-        <v>3</v>
-      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -609,19 +594,15 @@
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="5">
         <v>5000</v>
       </c>
       <c r="B5" s="4">
         <v>5002</v>
       </c>
-      <c r="C5" s="5">
-        <v>2</v>
-      </c>
-      <c r="D5" s="5">
-        <v>3</v>
-      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -643,19 +624,15 @@
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="5">
         <v>5000</v>
       </c>
       <c r="B6" s="4">
         <v>5003</v>
       </c>
-      <c r="C6" s="5">
-        <v>2</v>
-      </c>
-      <c r="D6" s="5">
-        <v>3</v>
-      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -677,19 +654,15 @@
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4">
         <v>5001</v>
       </c>
       <c r="B7" s="4">
         <v>5004</v>
       </c>
-      <c r="C7" s="5">
-        <v>3</v>
-      </c>
-      <c r="D7" s="5">
-        <v>4</v>
-      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -711,19 +684,15 @@
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4">
         <v>5001</v>
       </c>
       <c r="B8" s="4">
         <v>5005</v>
       </c>
-      <c r="C8" s="5">
-        <v>3</v>
-      </c>
-      <c r="D8" s="5">
-        <v>4</v>
-      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -745,19 +714,15 @@
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="4">
         <v>5004</v>
       </c>
       <c r="B9" s="4">
         <v>5006</v>
       </c>
-      <c r="C9" s="5">
-        <v>4</v>
-      </c>
-      <c r="D9" s="5">
-        <v>5</v>
-      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -779,19 +744,15 @@
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="4">
         <v>5004</v>
       </c>
       <c r="B10" s="4">
         <v>5007</v>
       </c>
-      <c r="C10" s="5">
-        <v>4</v>
-      </c>
-      <c r="D10" s="5">
-        <v>5</v>
-      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -813,7 +774,7 @@
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
@@ -839,7 +800,7 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
@@ -865,7 +826,7 @@
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
@@ -891,7 +852,7 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
@@ -917,7 +878,7 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
@@ -943,7 +904,7 @@
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
@@ -969,7 +930,7 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
@@ -995,7 +956,7 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
@@ -1021,7 +982,7 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>

--- a/input_data/data_ground_truth/5_composicao/composicao.xlsx
+++ b/input_data/data_ground_truth/5_composicao/composicao.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>codigo_pai</t>
   </si>
   <si>
     <t>codigo_filho</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -99,12 +96,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -126,9 +123,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -448,26 +442,26 @@
     <col min="2" max="2" style="9" width="11.719285714285713" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="10" width="9.719285714285713" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="10" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="5.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="7.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="11" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="11" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="11" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="11" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="11" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="11" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="11" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="11" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="11" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="11" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="11" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="11" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="11" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="11" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="11" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="11" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="5.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="7.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="10" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="10" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="10" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="10" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="10" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="10" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="10" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="10" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="10" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="10" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="10" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="10" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="10" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="10" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="10" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="10" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="10" width="7.576428571428571" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="16.5">
@@ -477,12 +471,8 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -1008,7 +998,7 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
@@ -1034,7 +1024,7 @@
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
